--- a/docss/trend/switzerland/E_huntington.xlsx
+++ b/docss/trend/switzerland/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\switzerland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\switzerland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>0.11375669622793794</v>
+        <v>0.114</v>
       </c>
       <c r="C2" s="7">
-        <v>0.18267692811787128</v>
+        <v>0.183</v>
       </c>
       <c r="D2" s="7">
-        <v>4.5901629142463207E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.11998622491955757</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="7">
-        <v>0.16359110549092293</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D3" s="7">
-        <v>8.0892208963632584E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>9.7737117670476437E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>7.7345259487628937E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>0.10976617410778999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.12312933523207903</v>
+        <v>0.123</v>
       </c>
       <c r="C5" s="7">
-        <v>7.084299623966217E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>0.16939271241426468</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.10206170938909054</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C6" s="7">
-        <v>0.10606543160974979</v>
+        <v>0.106</v>
       </c>
       <c r="D6" s="7">
-        <v>9.4940848648548126E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>0.13306345697492361</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C7" s="7">
-        <v>0.12805160321295261</v>
+        <v>0.128</v>
       </c>
       <c r="D7" s="7">
-        <v>0.13194815255701542</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>0.16560104116797447</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="C8" s="7">
-        <v>7.8933717682957649E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D8" s="7">
-        <v>0.24581284634768963</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.22869693487882614</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C9" s="7">
-        <v>0.27088269591331482</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D9" s="7">
-        <v>0.18115358799695969</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>0.12329895189031959</v>
+        <v>0.123</v>
       </c>
       <c r="C10" s="7">
-        <v>9.4659050926566124E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>0.14764914568513632</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>0.20031566359102726</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="7">
-        <v>0.23791664279997349</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D11" s="7">
-        <v>0.17605233192443848</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>9.8729544784873724E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="C12" s="7">
-        <v>7.6079448685050011E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D12" s="7">
-        <v>0.11208504717797041</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>0.24727597925812006</v>
+        <v>0.247</v>
       </c>
       <c r="C13" s="7">
-        <v>0.25575265660881996</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D13" s="7">
-        <v>0.2379846153780818</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>0.17263946402817965</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C14" s="7">
-        <v>0.15144206769764423</v>
+        <v>0.151</v>
       </c>
       <c r="D14" s="7">
-        <v>0.19517395086586475</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.15276753203943372</v>
+        <v>0.153</v>
       </c>
       <c r="C15" s="7">
-        <v>0.1028289208188653</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D15" s="7">
-        <v>0.20570695400238037</v>
+        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.19857514556497335</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C16" s="7">
-        <v>0.12488288432359695</v>
+        <v>0.125</v>
       </c>
       <c r="D16" s="7">
-        <v>0.26316957641392946</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
   </sheetData>
